--- a/Excel/051_DIA.DA.SEMANA.xlsx
+++ b/Excel/051_DIA.DA.SEMANA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Curso de Excel\Novas Aulas fev-2022\Funções Data e Hora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3496593-278D-4A8A-A376-307B66A01F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A66375-9E35-4FBF-B827-25AC36FABA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="4" r:id="rId1"/>
@@ -199,14 +199,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,9 +215,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -232,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,61 +554,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78223B1C-2916-415F-94CE-8640CAC99758}">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="6" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" customWidth="1"/>
+    <col min="4" max="6" width="17.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="18" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -630,22 +630,22 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E8" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C12" s="11" t="s">
         <v>2</v>
       </c>
@@ -657,7 +657,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C13" s="9">
         <v>44621</v>
       </c>
@@ -671,7 +671,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C14" s="9">
         <v>44622</v>
       </c>
@@ -685,7 +685,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C15" s="9">
         <v>44623</v>
       </c>
@@ -699,7 +699,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C16" s="9">
         <v>44624</v>
       </c>
@@ -713,7 +713,7 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C17" s="9">
         <v>44625</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C18" s="9">
         <v>44626</v>
       </c>
@@ -741,7 +741,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C19" s="9">
         <v>44627</v>
       </c>
@@ -755,27 +755,27 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="16" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C23" s="11" t="s">
         <v>4</v>
       </c>
@@ -789,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C24" s="9">
         <v>44643</v>
       </c>
@@ -805,9 +805,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C25" s="6"/>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <f>C24+D24</f>
         <v>44648</v>
       </c>
@@ -815,39 +815,39 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -868,61 +868,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3800858-B7AC-4A56-B33D-575FB9F68809}">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="6" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" customWidth="1"/>
+    <col min="4" max="6" width="17.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="2:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="2:8" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="18" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="2:8" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="2:8" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -944,22 +944,22 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E8" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C12" s="11" t="s">
         <v>2</v>
       </c>
@@ -971,83 +971,125 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C13" s="9">
         <v>44621</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="8">
+        <f>WEEKDAY(C13)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="12">
+        <f>WEEKDAY(C13)</f>
+        <v>3</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C14" s="9">
         <v>44622</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14:D19" si="0">WEEKDAY(C14)</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" ref="E14:E19" si="1">WEEKDAY(C14)</f>
+        <v>4</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C15" s="9">
         <v>44623</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C16" s="9">
         <v>44624</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C17" s="9">
         <v>44625</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C18" s="9">
         <v>44626</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C19" s="9">
         <v>44627</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="16" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C23" s="11" t="s">
         <v>4</v>
       </c>
@@ -1061,56 +1103,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C24" s="9">
-        <v>44649</v>
+        <v>44638</v>
       </c>
       <c r="D24" s="10">
         <v>5</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="12">
+        <f>C24+5</f>
+        <v>44643</v>
+      </c>
+      <c r="F24" s="12">
+        <f>IF(WEEKDAY(C24+D24)=1,"segunda-feira",IF(WEEKDAY(C24+D24)=7,"segunda-feira",WEEKDAY(C24+5)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C25" s="6"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="18">
+        <f>C24+D24</f>
+        <v>44643</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
